--- a/LagrangeInOriginal.xlsx
+++ b/LagrangeInOriginal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MDDM\Progetto\MDMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B08F1BA-698E-4C24-A141-5E223AD5EA28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D11CCB6-B349-4CFF-824F-5CC01159153F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="1710" windowWidth="24420" windowHeight="8835" xr2:uid="{41B2EEA1-047C-4D66-9DD9-DDC86BA0353F}"/>
+    <workbookView xWindow="4830" yWindow="4635" windowWidth="26340" windowHeight="8460" xr2:uid="{41B2EEA1-047C-4D66-9DD9-DDC86BA0353F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -163,12 +163,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,8 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -501,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A9474C-47C9-4118-AB47-5867F20E32B8}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +521,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>14886</v>
       </c>
     </row>
@@ -522,7 +529,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>18164</v>
       </c>
     </row>
@@ -530,15 +537,18 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>15495</v>
-      </c>
+      <c r="B3" s="1">
+        <v>15101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>60336</v>
       </c>
     </row>
@@ -546,7 +556,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>64954</v>
       </c>
     </row>
@@ -554,15 +564,15 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>52400</v>
+      <c r="B7" s="1">
+        <v>51563</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>52026</v>
       </c>
     </row>
@@ -570,7 +580,7 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>55325</v>
       </c>
     </row>
@@ -578,15 +588,15 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>52400</v>
+      <c r="B10" s="1">
+        <v>51563</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>52026</v>
       </c>
     </row>
@@ -594,7 +604,7 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>55325</v>
       </c>
     </row>
@@ -602,15 +612,15 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>52400</v>
+      <c r="B13" s="1">
+        <v>51563</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>52026</v>
       </c>
     </row>
@@ -618,7 +628,7 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>55325</v>
       </c>
     </row>
@@ -626,15 +636,15 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>58710</v>
+      <c r="B16" s="1">
+        <v>56253</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>46425</v>
       </c>
     </row>
@@ -642,7 +652,7 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>53385</v>
       </c>
     </row>
@@ -650,15 +660,15 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>53975</v>
+      <c r="B19" s="1">
+        <v>52306</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>43284</v>
       </c>
     </row>
@@ -666,7 +676,7 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>50373</v>
       </c>
     </row>
@@ -674,15 +684,15 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>53975</v>
+      <c r="B22" s="1">
+        <v>52306</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>43284</v>
       </c>
     </row>
@@ -690,7 +700,7 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>50373</v>
       </c>
     </row>
@@ -698,15 +708,15 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>53975</v>
+      <c r="B25" s="1">
+        <v>52306</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>43284</v>
       </c>
     </row>
@@ -714,7 +724,7 @@
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>50373</v>
       </c>
     </row>
@@ -722,15 +732,15 @@
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>50754</v>
+      <c r="B28" s="1">
+        <v>49081</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>53467</v>
       </c>
     </row>
@@ -738,7 +748,7 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>48402</v>
       </c>
     </row>
@@ -746,15 +756,15 @@
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>46959</v>
+      <c r="B31" s="1">
+        <v>45482</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>50830</v>
       </c>
     </row>
@@ -762,7 +772,7 @@
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>47156</v>
       </c>
     </row>
@@ -770,8 +780,8 @@
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>46959</v>
+      <c r="B34" s="1">
+        <v>45482</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,7 +796,7 @@
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>47156</v>
       </c>
     </row>
@@ -794,7 +804,7 @@
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>50830</v>
       </c>
     </row>
@@ -802,7 +812,7 @@
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>47156</v>
       </c>
     </row>
@@ -810,8 +820,8 @@
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>46959</v>
+      <c r="B39" s="1">
+        <v>45482</v>
       </c>
     </row>
   </sheetData>

--- a/LagrangeInOriginal.xlsx
+++ b/LagrangeInOriginal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MDDM\Progetto\MDMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D11CCB6-B349-4CFF-824F-5CC01159153F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5D067D-205A-4E1F-8079-B07ABBB6208C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="4635" windowWidth="26340" windowHeight="8460" xr2:uid="{41B2EEA1-047C-4D66-9DD9-DDC86BA0353F}"/>
+    <workbookView xWindow="0" yWindow="3240" windowWidth="26340" windowHeight="8460" xr2:uid="{41B2EEA1-047C-4D66-9DD9-DDC86BA0353F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A9474C-47C9-4118-AB47-5867F20E32B8}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>50830</v>
       </c>
     </row>
